--- a/DailyConfirmedCases.xlsx
+++ b/DailyConfirmedCases.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C8E4D9-1E7E-E74B-8FAF-9B592673EA69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyConfirmedCases" sheetId="1" r:id="rId1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="???,??0"/>
     <numFmt numFmtId="165" formatCode="??,??0"/>
@@ -428,23 +429,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -461,7 +462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43891</v>
       </c>
@@ -474,7 +475,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43892</v>
       </c>
@@ -487,7 +488,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43893</v>
       </c>
@@ -500,7 +501,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43894</v>
       </c>
@@ -513,7 +514,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43895</v>
       </c>
@@ -526,7 +527,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43896</v>
       </c>
@@ -539,7 +540,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43897</v>
       </c>
@@ -552,7 +553,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43898</v>
       </c>
@@ -565,7 +566,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43899</v>
       </c>
@@ -578,7 +579,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43900</v>
       </c>
@@ -593,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43901</v>
       </c>
@@ -606,7 +607,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43902</v>
       </c>
@@ -621,7 +622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43903</v>
       </c>
@@ -634,7 +635,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43904</v>
       </c>
@@ -649,7 +650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43905</v>
       </c>
@@ -666,7 +667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43906</v>
       </c>
@@ -683,7 +684,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43907</v>
       </c>
@@ -700,7 +701,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43908</v>
       </c>
@@ -717,7 +718,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43909</v>
       </c>
@@ -734,7 +735,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43910</v>
       </c>
@@ -751,7 +752,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43911</v>
       </c>
@@ -768,7 +769,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43912</v>
       </c>
@@ -785,7 +786,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43913</v>
       </c>
@@ -802,7 +803,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43914</v>
       </c>
@@ -819,7 +820,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43915</v>
       </c>
@@ -836,7 +837,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43916</v>
       </c>
@@ -853,7 +854,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43917</v>
       </c>
@@ -870,7 +871,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43918</v>
       </c>
@@ -887,7 +888,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43919</v>
       </c>
@@ -904,7 +905,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43920</v>
       </c>
@@ -921,7 +922,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43921</v>
       </c>
@@ -938,190 +939,173 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B33" s="3">
-        <v>4324</v>
-      </c>
-      <c r="C33" s="3">
-        <v>29474</v>
-      </c>
-      <c r="D33" s="3">
-        <v>563</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="5"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="5"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="5"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DailyConfirmedCases.xlsx
+++ b/DailyConfirmedCases.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C8E4D9-1E7E-E74B-8FAF-9B592673EA69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="DailyConfirmedCases" sheetId="1" r:id="rId1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="???,??0"/>
     <numFmt numFmtId="165" formatCode="??,??0"/>
@@ -429,23 +428,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -462,7 +461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43891</v>
       </c>
@@ -475,7 +474,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>43892</v>
       </c>
@@ -488,7 +487,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>43893</v>
       </c>
@@ -501,7 +500,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>43894</v>
       </c>
@@ -514,7 +513,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>43895</v>
       </c>
@@ -527,7 +526,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>43896</v>
       </c>
@@ -540,7 +539,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>43897</v>
       </c>
@@ -553,7 +552,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>43898</v>
       </c>
@@ -566,7 +565,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>43899</v>
       </c>
@@ -579,7 +578,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>43900</v>
       </c>
@@ -594,7 +593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>43901</v>
       </c>
@@ -607,7 +606,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>43902</v>
       </c>
@@ -622,7 +621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>43903</v>
       </c>
@@ -635,7 +634,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>43904</v>
       </c>
@@ -650,7 +649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>43905</v>
       </c>
@@ -667,7 +666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>43906</v>
       </c>
@@ -684,7 +683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>43907</v>
       </c>
@@ -701,7 +700,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>43908</v>
       </c>
@@ -718,7 +717,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>43909</v>
       </c>
@@ -735,7 +734,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>43910</v>
       </c>
@@ -752,7 +751,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>43911</v>
       </c>
@@ -769,7 +768,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>43912</v>
       </c>
@@ -786,7 +785,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>43913</v>
       </c>
@@ -803,7 +802,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>43914</v>
       </c>
@@ -820,7 +819,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>43915</v>
       </c>
@@ -837,7 +836,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>43916</v>
       </c>
@@ -854,7 +853,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>43917</v>
       </c>
@@ -871,7 +870,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>43918</v>
       </c>
@@ -888,7 +887,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>43919</v>
       </c>
@@ -905,7 +904,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>43920</v>
       </c>
@@ -922,7 +921,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>43921</v>
       </c>
@@ -939,173 +938,190 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4324</v>
+      </c>
+      <c r="C33" s="3">
+        <v>29474</v>
+      </c>
+      <c r="D33" s="3">
+        <v>563</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="5"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="5"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="5"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
+      <c r="B45" s="5"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DailyConfirmedCases.xlsx
+++ b/DailyConfirmedCases.xlsx
@@ -67,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -88,31 +88,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -429,22 +458,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -461,667 +490,906 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>43891</v>
+        <v>43861</v>
       </c>
       <c r="B2" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>43892</v>
+        <v>43862</v>
       </c>
       <c r="B3" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>43893</v>
+        <v>43863</v>
       </c>
       <c r="B4" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>43894</v>
+        <v>43864</v>
       </c>
       <c r="B5" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>43895</v>
+        <v>43865</v>
       </c>
       <c r="B6" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>43896</v>
+        <v>43866</v>
       </c>
       <c r="B7" s="3">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>43897</v>
+        <v>43867</v>
       </c>
       <c r="B8" s="3">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>43898</v>
+        <v>43868</v>
       </c>
       <c r="B9" s="3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>271</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>43899</v>
+        <v>43869</v>
       </c>
       <c r="B10" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>321</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>43900</v>
+        <v>43870</v>
       </c>
       <c r="B11" s="3">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>373</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>43901</v>
+        <v>43871</v>
       </c>
       <c r="B12" s="3">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3">
-        <v>456</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>43902</v>
+        <v>43872</v>
       </c>
       <c r="B13" s="3">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>590</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
         <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>43903</v>
-      </c>
-      <c r="B14" s="3">
-        <v>207</v>
-      </c>
-      <c r="C14" s="3">
-        <v>797</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>43904</v>
+        <v>43874</v>
       </c>
       <c r="B15" s="3">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>1061</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>43905</v>
+        <v>43875</v>
       </c>
       <c r="B16" s="3">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>1391</v>
-      </c>
-      <c r="D16" s="3">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>43877</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43883</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>43884</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B31" s="3">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B32" s="3">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>43906</v>
-      </c>
-      <c r="B17" s="3">
-        <v>152</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1543</v>
-      </c>
-      <c r="D17" s="3">
-        <v>20</v>
-      </c>
-      <c r="E17" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>43907</v>
-      </c>
-      <c r="B18" s="3">
-        <v>407</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1950</v>
-      </c>
-      <c r="D18" s="3">
-        <v>16</v>
-      </c>
-      <c r="E18" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>43908</v>
-      </c>
-      <c r="B19" s="3">
-        <v>676</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2626</v>
-      </c>
-      <c r="D19" s="3">
-        <v>32</v>
-      </c>
-      <c r="E19" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>43909</v>
-      </c>
-      <c r="B20" s="3">
-        <v>643</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3269</v>
-      </c>
-      <c r="D20" s="3">
-        <v>41</v>
-      </c>
-      <c r="E20" s="3">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>43910</v>
-      </c>
-      <c r="B21" s="3">
-        <v>714</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3983</v>
-      </c>
-      <c r="D21" s="3">
-        <v>33</v>
-      </c>
-      <c r="E21" s="3">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>43911</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1035</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5018</v>
-      </c>
-      <c r="D22" s="3">
-        <v>56</v>
-      </c>
-      <c r="E22" s="3">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>43912</v>
-      </c>
-      <c r="B23" s="3">
-        <v>665</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5683</v>
-      </c>
-      <c r="D23" s="3">
-        <v>48</v>
-      </c>
-      <c r="E23" s="3">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>43913</v>
-      </c>
-      <c r="B24" s="3">
-        <v>967</v>
-      </c>
-      <c r="C24" s="3">
-        <v>6650</v>
-      </c>
-      <c r="D24" s="3">
-        <v>54</v>
-      </c>
-      <c r="E24" s="3">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>43914</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1427</v>
-      </c>
-      <c r="C25" s="3">
-        <v>8077</v>
-      </c>
-      <c r="D25" s="3">
-        <v>87</v>
-      </c>
-      <c r="E25" s="3">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>43915</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1452</v>
-      </c>
-      <c r="C26" s="3">
-        <v>9529</v>
-      </c>
-      <c r="D26" s="3">
-        <v>41</v>
-      </c>
-      <c r="E26" s="3">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>43916</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2129</v>
-      </c>
-      <c r="C27" s="3">
-        <v>11658</v>
-      </c>
-      <c r="D27" s="3">
-        <v>115</v>
-      </c>
-      <c r="E27" s="3">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>43917</v>
-      </c>
-      <c r="B28" s="3">
-        <v>2885</v>
-      </c>
-      <c r="C28" s="3">
-        <v>14543</v>
-      </c>
-      <c r="D28" s="3">
-        <v>181</v>
-      </c>
-      <c r="E28" s="3">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>43918</v>
-      </c>
-      <c r="B29" s="3">
-        <v>2546</v>
-      </c>
-      <c r="C29" s="3">
-        <v>17089</v>
-      </c>
-      <c r="D29" s="3">
-        <v>260</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>43919</v>
-      </c>
-      <c r="B30" s="3">
-        <v>2433</v>
-      </c>
-      <c r="C30" s="3">
-        <v>19522</v>
-      </c>
-      <c r="D30" s="3">
-        <v>209</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>43920</v>
-      </c>
-      <c r="B31" s="3">
-        <v>2619</v>
-      </c>
-      <c r="C31" s="3">
-        <v>22141</v>
-      </c>
-      <c r="D31" s="3">
-        <v>180</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B32" s="3">
-        <v>3009</v>
-      </c>
-      <c r="C32" s="3">
-        <v>25150</v>
-      </c>
-      <c r="D32" s="3">
-        <v>381</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>43922</v>
+        <v>43892</v>
       </c>
       <c r="B33" s="3">
-        <v>4324</v>
+        <v>5</v>
       </c>
       <c r="C33" s="3">
-        <v>29474</v>
-      </c>
-      <c r="D33" s="3">
-        <v>563</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B34" s="3">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3">
+        <v>51</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B35" s="3">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3">
+        <v>85</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B36" s="3">
+        <v>29</v>
+      </c>
+      <c r="C36" s="3">
+        <v>114</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B37" s="3">
+        <v>46</v>
+      </c>
+      <c r="C37" s="3">
+        <v>160</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B38" s="3">
+        <v>46</v>
+      </c>
+      <c r="C38" s="3">
+        <v>206</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>43898</v>
+      </c>
+      <c r="B39" s="3">
+        <v>65</v>
+      </c>
+      <c r="C39" s="3">
+        <v>271</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B40" s="3">
+        <v>50</v>
+      </c>
+      <c r="C40" s="3">
+        <v>321</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B41" s="3">
+        <v>52</v>
+      </c>
+      <c r="C41" s="3">
+        <v>373</v>
+      </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="E41" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B42" s="3">
+        <v>83</v>
+      </c>
+      <c r="C42" s="3">
+        <v>456</v>
+      </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>43902</v>
+      </c>
+      <c r="B43" s="6">
+        <v>139</v>
+      </c>
+      <c r="C43" s="3">
+        <v>590</v>
+      </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
+      <c r="E43" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B44" s="6">
+        <v>207</v>
+      </c>
+      <c r="C44" s="3">
+        <v>797</v>
+      </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B45" s="6">
+        <v>264</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1061</v>
+      </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="E45" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B46" s="3">
+        <v>330</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1391</v>
+      </c>
+      <c r="D46" s="4">
+        <v>14</v>
+      </c>
+      <c r="E46" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B47" s="3">
+        <v>152</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1543</v>
+      </c>
+      <c r="D47" s="4">
+        <v>20</v>
+      </c>
+      <c r="E47" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B48" s="3">
+        <v>407</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1950</v>
+      </c>
+      <c r="D48" s="4">
+        <v>16</v>
+      </c>
+      <c r="E48" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B49" s="3">
+        <v>676</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2626</v>
+      </c>
+      <c r="D49" s="4">
+        <v>32</v>
+      </c>
+      <c r="E49" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B50" s="3">
+        <v>643</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3269</v>
+      </c>
+      <c r="D50" s="4">
+        <v>41</v>
+      </c>
+      <c r="E50" s="4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B51" s="3">
+        <v>714</v>
+      </c>
+      <c r="C51" s="3">
+        <v>3983</v>
+      </c>
+      <c r="D51" s="4">
+        <v>33</v>
+      </c>
+      <c r="E51" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1035</v>
+      </c>
+      <c r="C52" s="7">
+        <v>5018</v>
+      </c>
+      <c r="D52" s="4">
+        <v>56</v>
+      </c>
+      <c r="E52" s="4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B53" s="7">
+        <v>665</v>
+      </c>
+      <c r="C53" s="7">
+        <v>5683</v>
+      </c>
+      <c r="D53" s="4">
+        <v>48</v>
+      </c>
+      <c r="E53" s="4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B54" s="8">
+        <v>967</v>
+      </c>
+      <c r="C54" s="8">
+        <v>6650</v>
+      </c>
+      <c r="D54" s="4">
+        <v>54</v>
+      </c>
+      <c r="E54" s="4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B55" s="8">
+        <v>1427</v>
+      </c>
+      <c r="C55" s="8">
+        <v>8077</v>
+      </c>
+      <c r="D55" s="4">
+        <v>87</v>
+      </c>
+      <c r="E55" s="4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B56" s="8">
+        <v>1452</v>
+      </c>
+      <c r="C56" s="8">
+        <v>9529</v>
+      </c>
+      <c r="D56" s="4">
+        <v>41</v>
+      </c>
+      <c r="E56" s="4">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2129</v>
+      </c>
+      <c r="C57" s="3">
+        <v>11658</v>
+      </c>
+      <c r="D57" s="4">
+        <v>115</v>
+      </c>
+      <c r="E57" s="4">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2885</v>
+      </c>
+      <c r="C58" s="3">
+        <v>14543</v>
+      </c>
+      <c r="D58" s="4">
+        <v>181</v>
+      </c>
+      <c r="E58" s="4">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2546</v>
+      </c>
+      <c r="C59" s="3">
+        <v>17089</v>
+      </c>
+      <c r="D59" s="4">
+        <v>260</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2433</v>
+      </c>
+      <c r="C60" s="3">
+        <v>19522</v>
+      </c>
+      <c r="D60" s="4">
+        <v>209</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2619</v>
+      </c>
+      <c r="C61" s="3">
+        <v>22141</v>
+      </c>
+      <c r="D61" s="4">
+        <v>180</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B62" s="3">
+        <v>3009</v>
+      </c>
+      <c r="C62" s="3">
+        <v>25150</v>
+      </c>
+      <c r="D62" s="4">
+        <v>381</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B63" s="3">
+        <v>4324</v>
+      </c>
+      <c r="C63" s="3">
+        <v>29474</v>
+      </c>
+      <c r="D63" s="4">
+        <v>563</v>
+      </c>
+      <c r="E63" s="4">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B64" s="3">
+        <v>4244</v>
+      </c>
+      <c r="C64" s="3">
+        <v>33718</v>
+      </c>
+      <c r="D64" s="4">
+        <v>569</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2921</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
